--- a/benchmarks/cscs2022/xlsx/Random/120.xlsx
+++ b/benchmarks/cscs2022/xlsx/Random/120.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mnsai\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\PHD\P.h.D papers\Paper_Integer Programming Based Optimization of Power Consumption for DCNs\Solvers\New  benchmarks\New  benchmarks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2ABE7D-F90A-4F0B-A023-4D3184BC79EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{811EB46E-F161-4D0A-A8E5-064A0E53009D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,374 +35,380 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
-    <t>f1</t>
-  </si>
-  <si>
-    <t>f2</t>
-  </si>
-  <si>
-    <t>f3</t>
-  </si>
-  <si>
-    <t>f4</t>
-  </si>
-  <si>
-    <t>f5</t>
-  </si>
-  <si>
-    <t>f6</t>
-  </si>
-  <si>
-    <t>f7</t>
-  </si>
-  <si>
-    <t>f8</t>
-  </si>
-  <si>
-    <t>f9</t>
-  </si>
-  <si>
-    <t>f10</t>
-  </si>
-  <si>
-    <t>f11</t>
-  </si>
-  <si>
-    <t>f12</t>
-  </si>
-  <si>
-    <t>f13</t>
-  </si>
-  <si>
-    <t>f14</t>
-  </si>
-  <si>
-    <t>f15</t>
-  </si>
-  <si>
-    <t>f16</t>
-  </si>
-  <si>
-    <t>f17</t>
-  </si>
-  <si>
-    <t>f18</t>
-  </si>
-  <si>
-    <t>f19</t>
-  </si>
-  <si>
-    <t>f20</t>
-  </si>
-  <si>
-    <t>f21</t>
-  </si>
-  <si>
-    <t>f22</t>
-  </si>
-  <si>
-    <t>f23</t>
-  </si>
-  <si>
-    <t>f24</t>
-  </si>
-  <si>
-    <t>f25</t>
-  </si>
-  <si>
-    <t>f26</t>
-  </si>
-  <si>
-    <t>f27</t>
-  </si>
-  <si>
-    <t>f28</t>
-  </si>
-  <si>
-    <t>f29</t>
-  </si>
-  <si>
-    <t>f30</t>
-  </si>
-  <si>
-    <t>f31</t>
-  </si>
-  <si>
-    <t>f32</t>
-  </si>
-  <si>
-    <t>f33</t>
-  </si>
-  <si>
-    <t>f34</t>
-  </si>
-  <si>
-    <t>f35</t>
-  </si>
-  <si>
-    <t>f36</t>
-  </si>
-  <si>
-    <t>f37</t>
-  </si>
-  <si>
-    <t>f38</t>
-  </si>
-  <si>
-    <t>f39</t>
-  </si>
-  <si>
-    <t>f40</t>
-  </si>
-  <si>
-    <t>f41</t>
-  </si>
-  <si>
-    <t>f42</t>
-  </si>
-  <si>
-    <t>f43</t>
-  </si>
-  <si>
-    <t>f44</t>
-  </si>
-  <si>
-    <t>f45</t>
-  </si>
-  <si>
-    <t>f46</t>
-  </si>
-  <si>
-    <t>f47</t>
-  </si>
-  <si>
-    <t>f48</t>
-  </si>
-  <si>
-    <t>f49</t>
-  </si>
-  <si>
-    <t>f50</t>
-  </si>
-  <si>
-    <t>f51</t>
-  </si>
-  <si>
-    <t>f52</t>
-  </si>
-  <si>
-    <t>f53</t>
-  </si>
-  <si>
-    <t>f54</t>
-  </si>
-  <si>
-    <t>f55</t>
-  </si>
-  <si>
-    <t>f56</t>
-  </si>
-  <si>
-    <t>f57</t>
-  </si>
-  <si>
-    <t>f58</t>
-  </si>
-  <si>
-    <t>f59</t>
-  </si>
-  <si>
-    <t>f60</t>
-  </si>
-  <si>
-    <t>f61</t>
-  </si>
-  <si>
-    <t>f62</t>
-  </si>
-  <si>
-    <t>f63</t>
-  </si>
-  <si>
-    <t>f64</t>
-  </si>
-  <si>
-    <t>f65</t>
-  </si>
-  <si>
-    <t>f66</t>
-  </si>
-  <si>
-    <t>f67</t>
-  </si>
-  <si>
-    <t>f68</t>
-  </si>
-  <si>
-    <t>f69</t>
-  </si>
-  <si>
-    <t>f70</t>
-  </si>
-  <si>
-    <t>f71</t>
-  </si>
-  <si>
-    <t>f72</t>
-  </si>
-  <si>
-    <t>f73</t>
-  </si>
-  <si>
-    <t>f74</t>
-  </si>
-  <si>
-    <t>f75</t>
-  </si>
-  <si>
-    <t>f76</t>
-  </si>
-  <si>
-    <t>f77</t>
-  </si>
-  <si>
-    <t>f78</t>
-  </si>
-  <si>
-    <t>f79</t>
-  </si>
-  <si>
-    <t>f80</t>
-  </si>
-  <si>
-    <t>f81</t>
-  </si>
-  <si>
-    <t>f82</t>
-  </si>
-  <si>
-    <t>f83</t>
-  </si>
-  <si>
-    <t>f84</t>
-  </si>
-  <si>
-    <t>f85</t>
-  </si>
-  <si>
-    <t>f86</t>
-  </si>
-  <si>
-    <t>f87</t>
-  </si>
-  <si>
-    <t>f88</t>
-  </si>
-  <si>
-    <t>f89</t>
-  </si>
-  <si>
-    <t>f90</t>
-  </si>
-  <si>
-    <t>f91</t>
-  </si>
-  <si>
-    <t>f92</t>
-  </si>
-  <si>
-    <t>f93</t>
-  </si>
-  <si>
-    <t>f94</t>
-  </si>
-  <si>
-    <t>f95</t>
-  </si>
-  <si>
-    <t>f96</t>
-  </si>
-  <si>
-    <t>f97</t>
-  </si>
-  <si>
-    <t>f98</t>
-  </si>
-  <si>
-    <t>f99</t>
-  </si>
-  <si>
-    <t>f100</t>
-  </si>
-  <si>
-    <t>f101</t>
-  </si>
-  <si>
-    <t>f102</t>
-  </si>
-  <si>
-    <t>f103</t>
-  </si>
-  <si>
-    <t>f104</t>
-  </si>
-  <si>
-    <t>f105</t>
-  </si>
-  <si>
-    <t>f106</t>
-  </si>
-  <si>
-    <t>f107</t>
-  </si>
-  <si>
-    <t>f108</t>
-  </si>
-  <si>
-    <t>f109</t>
-  </si>
-  <si>
-    <t>f110</t>
-  </si>
-  <si>
-    <t>f111</t>
-  </si>
-  <si>
-    <t>f112</t>
-  </si>
-  <si>
-    <t>f113</t>
-  </si>
-  <si>
-    <t>f114</t>
-  </si>
-  <si>
-    <t>f115</t>
-  </si>
-  <si>
-    <t>f116</t>
-  </si>
-  <si>
-    <t>f117</t>
-  </si>
-  <si>
-    <t>f118</t>
-  </si>
-  <si>
-    <t>f119</t>
-  </si>
-  <si>
-    <t>f120</t>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>F13</t>
+  </si>
+  <si>
+    <t>F14</t>
+  </si>
+  <si>
+    <t>F15</t>
+  </si>
+  <si>
+    <t>F16</t>
+  </si>
+  <si>
+    <t>F17</t>
+  </si>
+  <si>
+    <t>F18</t>
+  </si>
+  <si>
+    <t>F19</t>
+  </si>
+  <si>
+    <t>F20</t>
+  </si>
+  <si>
+    <t>F21</t>
+  </si>
+  <si>
+    <t>F22</t>
+  </si>
+  <si>
+    <t>F23</t>
+  </si>
+  <si>
+    <t>F24</t>
+  </si>
+  <si>
+    <t>F25</t>
+  </si>
+  <si>
+    <t>F26</t>
+  </si>
+  <si>
+    <t>F27</t>
+  </si>
+  <si>
+    <t>F28</t>
+  </si>
+  <si>
+    <t>F29</t>
+  </si>
+  <si>
+    <t>F30</t>
+  </si>
+  <si>
+    <t>F31</t>
+  </si>
+  <si>
+    <t>F32</t>
+  </si>
+  <si>
+    <t>F33</t>
+  </si>
+  <si>
+    <t>F34</t>
+  </si>
+  <si>
+    <t>F35</t>
+  </si>
+  <si>
+    <t>F36</t>
+  </si>
+  <si>
+    <t>F37</t>
+  </si>
+  <si>
+    <t>F38</t>
+  </si>
+  <si>
+    <t>F39</t>
+  </si>
+  <si>
+    <t>F40</t>
+  </si>
+  <si>
+    <t>F41</t>
+  </si>
+  <si>
+    <t>F42</t>
+  </si>
+  <si>
+    <t>F43</t>
+  </si>
+  <si>
+    <t>F44</t>
+  </si>
+  <si>
+    <t>F45</t>
+  </si>
+  <si>
+    <t>F46</t>
+  </si>
+  <si>
+    <t>F47</t>
+  </si>
+  <si>
+    <t>F48</t>
+  </si>
+  <si>
+    <t>F49</t>
+  </si>
+  <si>
+    <t>F50</t>
+  </si>
+  <si>
+    <t>F51</t>
+  </si>
+  <si>
+    <t>F52</t>
+  </si>
+  <si>
+    <t>F53</t>
+  </si>
+  <si>
+    <t>F54</t>
+  </si>
+  <si>
+    <t>F55</t>
+  </si>
+  <si>
+    <t>F56</t>
+  </si>
+  <si>
+    <t>F57</t>
+  </si>
+  <si>
+    <t>F58</t>
+  </si>
+  <si>
+    <t>F59</t>
+  </si>
+  <si>
+    <t>F60</t>
+  </si>
+  <si>
+    <t>F61</t>
+  </si>
+  <si>
+    <t>F62</t>
+  </si>
+  <si>
+    <t>F63</t>
+  </si>
+  <si>
+    <t>F64</t>
+  </si>
+  <si>
+    <t>F65</t>
+  </si>
+  <si>
+    <t>F66</t>
+  </si>
+  <si>
+    <t>F67</t>
+  </si>
+  <si>
+    <t>F68</t>
+  </si>
+  <si>
+    <t>F69</t>
+  </si>
+  <si>
+    <t>F70</t>
+  </si>
+  <si>
+    <t>F71</t>
+  </si>
+  <si>
+    <t>F72</t>
+  </si>
+  <si>
+    <t>F73</t>
+  </si>
+  <si>
+    <t>F74</t>
+  </si>
+  <si>
+    <t>F75</t>
+  </si>
+  <si>
+    <t>F76</t>
+  </si>
+  <si>
+    <t>F77</t>
+  </si>
+  <si>
+    <t>F78</t>
+  </si>
+  <si>
+    <t>F79</t>
+  </si>
+  <si>
+    <t>F80</t>
+  </si>
+  <si>
+    <t>F81</t>
+  </si>
+  <si>
+    <t>F82</t>
+  </si>
+  <si>
+    <t>F83</t>
+  </si>
+  <si>
+    <t>F84</t>
+  </si>
+  <si>
+    <t>F85</t>
+  </si>
+  <si>
+    <t>F86</t>
+  </si>
+  <si>
+    <t>F87</t>
+  </si>
+  <si>
+    <t>F88</t>
+  </si>
+  <si>
+    <t>F89</t>
+  </si>
+  <si>
+    <t>F90</t>
+  </si>
+  <si>
+    <t>F91</t>
+  </si>
+  <si>
+    <t>F92</t>
+  </si>
+  <si>
+    <t>F93</t>
+  </si>
+  <si>
+    <t>F94</t>
+  </si>
+  <si>
+    <t>F95</t>
+  </si>
+  <si>
+    <t>F96</t>
+  </si>
+  <si>
+    <t>F97</t>
+  </si>
+  <si>
+    <t>F98</t>
+  </si>
+  <si>
+    <t>F99</t>
+  </si>
+  <si>
+    <t>F100</t>
+  </si>
+  <si>
+    <t>F101</t>
+  </si>
+  <si>
+    <t>F102</t>
+  </si>
+  <si>
+    <t>F103</t>
+  </si>
+  <si>
+    <t>F104</t>
+  </si>
+  <si>
+    <t>F105</t>
+  </si>
+  <si>
+    <t>F106</t>
+  </si>
+  <si>
+    <t>F107</t>
+  </si>
+  <si>
+    <t>F108</t>
+  </si>
+  <si>
+    <t>F109</t>
+  </si>
+  <si>
+    <t>F110</t>
+  </si>
+  <si>
+    <t>F111</t>
+  </si>
+  <si>
+    <t>F112</t>
+  </si>
+  <si>
+    <t>F113</t>
+  </si>
+  <si>
+    <t>F114</t>
+  </si>
+  <si>
+    <t>F115</t>
+  </si>
+  <si>
+    <t>F116</t>
+  </si>
+  <si>
+    <t>F117</t>
+  </si>
+  <si>
+    <t>F118</t>
+  </si>
+  <si>
+    <t>F119</t>
+  </si>
+  <si>
+    <t>F120</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -719,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D120"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection sqref="A1:A120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -739,7 +745,7 @@
         <v>9</v>
       </c>
       <c r="D1" s="2">
-        <v>89.077265147304061</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -753,7 +759,7 @@
         <v>9</v>
       </c>
       <c r="D2" s="2">
-        <v>85.88104502501389</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -767,7 +773,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="2">
-        <v>96.442468037798776</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -781,7 +787,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="2">
-        <v>49.471928849360751</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -795,7 +801,7 @@
         <v>9</v>
       </c>
       <c r="D5" s="2">
-        <v>3.3351862145636462</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -809,7 +815,7 @@
         <v>9</v>
       </c>
       <c r="D6" s="2">
-        <v>24.87493051695386</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -823,7 +829,7 @@
         <v>9</v>
       </c>
       <c r="D7" s="2">
-        <v>34.602556976097837</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -837,7 +843,7 @@
         <v>9</v>
       </c>
       <c r="D8" s="2">
-        <v>123.40188993885492</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -851,7 +857,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="2">
-        <v>31.962201222901609</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -865,7 +871,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="2">
-        <v>44.05225125069483</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -879,7 +885,7 @@
         <v>9</v>
       </c>
       <c r="D11" s="2">
-        <v>23.763201778765978</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -893,7 +899,7 @@
         <v>9</v>
       </c>
       <c r="D12" s="2">
-        <v>76.153418565869927</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -907,7 +913,7 @@
         <v>9</v>
       </c>
       <c r="D13" s="2">
-        <v>138.54919399666483</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -921,7 +927,7 @@
         <v>9</v>
       </c>
       <c r="D14" s="2">
-        <v>69.066147859922182</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -935,7 +941,7 @@
         <v>9</v>
       </c>
       <c r="D15" s="2">
-        <v>109.36631461923291</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -949,7 +955,7 @@
         <v>10</v>
       </c>
       <c r="D16" s="2">
-        <v>65.599014474899903</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -963,7 +969,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="2">
-        <v>78.226054819833692</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -977,7 +983,7 @@
         <v>10</v>
       </c>
       <c r="D18" s="2">
-        <v>108.40776101016323</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -991,7 +997,7 @@
         <v>10</v>
       </c>
       <c r="D19" s="2">
-        <v>10.163227594702803</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1005,7 +1011,7 @@
         <v>10</v>
       </c>
       <c r="D20" s="2">
-        <v>145.98090545118572</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1019,7 +1025,7 @@
         <v>10</v>
       </c>
       <c r="D21" s="2">
-        <v>62.365260240221744</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1033,7 +1039,7 @@
         <v>10</v>
       </c>
       <c r="D22" s="2">
-        <v>32.029565753002771</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1047,7 +1053,7 @@
         <v>10</v>
       </c>
       <c r="D23" s="2">
-        <v>100.40036957191253</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1061,7 +1067,7 @@
         <v>10</v>
       </c>
       <c r="D24" s="2">
-        <v>130.12011087157376</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1075,7 +1081,7 @@
         <v>10</v>
       </c>
       <c r="D25" s="2">
-        <v>16.938712657838003</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1089,7 +1095,7 @@
         <v>10</v>
       </c>
       <c r="D26" s="2">
-        <v>8.6233446258084374</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1103,7 +1109,7 @@
         <v>10</v>
       </c>
       <c r="D27" s="2">
-        <v>91.469048352325217</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1117,7 +1123,7 @@
         <v>10</v>
       </c>
       <c r="D28" s="2">
-        <v>46.042500769941483</v>
+        <v>24</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1131,7 +1137,7 @@
         <v>10</v>
       </c>
       <c r="D29" s="2">
-        <v>9.0853095164767481</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1145,7 +1151,7 @@
         <v>10</v>
       </c>
       <c r="D30" s="2">
-        <v>94.548814290113953</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1159,7 +1165,7 @@
         <v>11</v>
       </c>
       <c r="D31" s="2">
-        <v>52.077121844563706</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1173,7 +1179,7 @@
         <v>11</v>
       </c>
       <c r="D32" s="2">
-        <v>58.835221625919303</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1187,7 +1193,7 @@
         <v>11</v>
       </c>
       <c r="D33" s="2">
-        <v>143.11270125223612</v>
+        <v>72</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1201,7 +1207,7 @@
         <v>11</v>
       </c>
       <c r="D34" s="2">
-        <v>38.759689922480618</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1215,7 +1221,7 @@
         <v>11</v>
       </c>
       <c r="D35" s="2">
-        <v>123.03716954879745</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1229,7 +1235,7 @@
         <v>11</v>
       </c>
       <c r="D36" s="2">
-        <v>8.5470085470085486</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1243,7 +1249,7 @@
         <v>11</v>
       </c>
       <c r="D37" s="2">
-        <v>68.177300735440269</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1257,7 +1263,7 @@
         <v>11</v>
       </c>
       <c r="D38" s="2">
-        <v>79.904591532498515</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1271,7 +1277,7 @@
         <v>11</v>
       </c>
       <c r="D39" s="2">
-        <v>66.587159610415426</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1285,7 +1291,7 @@
         <v>11</v>
       </c>
       <c r="D40" s="2">
-        <v>5.9630292188431726</v>
+        <v>3</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1299,7 +1305,7 @@
         <v>11</v>
       </c>
       <c r="D41" s="2">
-        <v>121.44702842377261</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1313,7 +1319,7 @@
         <v>11</v>
       </c>
       <c r="D42" s="2">
-        <v>33.989266547406082</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1327,7 +1333,7 @@
         <v>11</v>
       </c>
       <c r="D43" s="2">
-        <v>33.392963625521766</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1341,7 +1347,7 @@
         <v>11</v>
       </c>
       <c r="D44" s="2">
-        <v>115.08646392367322</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1355,7 +1361,7 @@
         <v>11</v>
       </c>
       <c r="D45" s="2">
-        <v>51.083283641423179</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1369,7 +1375,7 @@
         <v>12</v>
       </c>
       <c r="D46" s="2">
-        <v>123.17105613195</v>
+        <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1383,7 +1389,7 @@
         <v>12</v>
       </c>
       <c r="D47" s="2">
-        <v>10.375099760574621</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1397,7 +1403,7 @@
         <v>12</v>
       </c>
       <c r="D48" s="2">
-        <v>61.984570364458634</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1411,7 +1417,7 @@
         <v>12</v>
       </c>
       <c r="D49" s="2">
-        <v>37.110933758978447</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1425,7 +1431,7 @@
         <v>12</v>
       </c>
       <c r="D50" s="2">
-        <v>56.530992285182229</v>
+        <v>29</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1439,7 +1445,7 @@
         <v>12</v>
       </c>
       <c r="D51" s="2">
-        <v>67.704176642724136</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1453,7 +1459,7 @@
         <v>12</v>
       </c>
       <c r="D52" s="2">
-        <v>116.52035115722266</v>
+        <v>59</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1467,7 +1473,7 @@
         <v>12</v>
       </c>
       <c r="D53" s="2">
-        <v>66.108007448789564</v>
+        <v>34</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1481,7 +1487,7 @@
         <v>12</v>
       </c>
       <c r="D54" s="2">
-        <v>15.695663740356476</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1495,7 +1501,7 @@
         <v>12</v>
       </c>
       <c r="D55" s="2">
-        <v>45.35780792764033</v>
+        <v>23</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1509,7 +1515,7 @@
         <v>12</v>
       </c>
       <c r="D56" s="2">
-        <v>2.6602819898909282</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1523,7 +1529,7 @@
         <v>12</v>
       </c>
       <c r="D57" s="2">
-        <v>125.29928172386273</v>
+        <v>63</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1537,7 +1543,7 @@
         <v>12</v>
       </c>
       <c r="D58" s="2">
-        <v>36.179835062516624</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1551,7 +1557,7 @@
         <v>12</v>
       </c>
       <c r="D59" s="2">
-        <v>103.35195530726257</v>
+        <v>52</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1565,7 +1571,7 @@
         <v>12</v>
       </c>
       <c r="D60" s="2">
-        <v>131.94998669859004</v>
+        <v>66</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1579,7 +1585,7 @@
         <v>13</v>
       </c>
       <c r="D61" s="2">
-        <v>56.702488687782804</v>
+        <v>29</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1593,7 +1599,7 @@
         <v>13</v>
       </c>
       <c r="D62" s="2">
-        <v>86.962669683257914</v>
+        <v>44</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1607,7 +1613,7 @@
         <v>13</v>
       </c>
       <c r="D63" s="2">
-        <v>60.237556561085974</v>
+        <v>31</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1621,7 +1627,7 @@
         <v>13</v>
       </c>
       <c r="D64" s="2">
-        <v>129.24208144796381</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1635,7 +1641,7 @@
         <v>13</v>
       </c>
       <c r="D65" s="2">
-        <v>10.605203619909503</v>
+        <v>6</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1649,7 +1655,7 @@
         <v>13</v>
       </c>
       <c r="D66" s="2">
-        <v>138.00904977375566</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1663,7 +1669,7 @@
         <v>13</v>
       </c>
       <c r="D67" s="2">
-        <v>44.683257918552037</v>
+        <v>23</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1677,7 +1683,7 @@
         <v>13</v>
       </c>
       <c r="D68" s="2">
-        <v>13.574660633484163</v>
+        <v>7</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1691,7 +1697,7 @@
         <v>13</v>
       </c>
       <c r="D69" s="2">
-        <v>139.70588235294119</v>
+        <v>70</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1705,7 +1711,7 @@
         <v>13</v>
       </c>
       <c r="D70" s="2">
-        <v>3.5350678733031673</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1719,7 +1725,7 @@
         <v>13</v>
       </c>
       <c r="D71" s="2">
-        <v>67.731900452488688</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1733,7 +1739,7 @@
         <v>13</v>
       </c>
       <c r="D72" s="2">
-        <v>127.12104072398189</v>
+        <v>64</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1747,7 +1753,7 @@
         <v>13</v>
       </c>
       <c r="D73" s="2">
-        <v>43.693438914027148</v>
+        <v>22</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -1761,7 +1767,7 @@
         <v>13</v>
       </c>
       <c r="D74" s="2">
-        <v>55.571266968325787</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -1775,7 +1781,7 @@
         <v>13</v>
       </c>
       <c r="D75" s="2">
-        <v>22.624434389140269</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -1789,7 +1795,7 @@
         <v>14</v>
       </c>
       <c r="D76" s="2">
-        <v>99.561403508771932</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
@@ -1803,7 +1809,7 @@
         <v>14</v>
       </c>
       <c r="D77" s="2">
-        <v>73.026315789473685</v>
+        <v>37</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
@@ -1817,7 +1823,7 @@
         <v>14</v>
       </c>
       <c r="D78" s="2">
-        <v>54.495614035087719</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
@@ -1831,7 +1837,7 @@
         <v>14</v>
       </c>
       <c r="D79" s="2">
-        <v>85.087719298245617</v>
+        <v>43</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
@@ -1845,7 +1851,7 @@
         <v>14</v>
       </c>
       <c r="D80" s="2">
-        <v>22.149122807017545</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.3">
@@ -1859,7 +1865,7 @@
         <v>14</v>
       </c>
       <c r="D81" s="2">
-        <v>83.991228070175438</v>
+        <v>42</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.3">
@@ -1873,7 +1879,7 @@
         <v>14</v>
       </c>
       <c r="D82" s="2">
-        <v>37.938596491228068</v>
+        <v>19</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.3">
@@ -1887,7 +1893,7 @@
         <v>14</v>
       </c>
       <c r="D83" s="2">
-        <v>101.53508771929825</v>
+        <v>51</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.3">
@@ -1901,7 +1907,7 @@
         <v>14</v>
       </c>
       <c r="D84" s="2">
-        <v>102.5219298245614</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.3">
@@ -1915,7 +1921,7 @@
         <v>14</v>
       </c>
       <c r="D85" s="2">
-        <v>23.245614035087719</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.3">
@@ -1929,7 +1935,7 @@
         <v>14</v>
       </c>
       <c r="D86" s="2">
-        <v>34.978070175438596</v>
+        <v>18</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.3">
@@ -1943,7 +1949,7 @@
         <v>14</v>
       </c>
       <c r="D87" s="2">
-        <v>97.587719298245617</v>
+        <v>49</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.3">
@@ -1957,7 +1963,7 @@
         <v>14</v>
       </c>
       <c r="D88" s="2">
-        <v>101.53508771929825</v>
+        <v>51</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.3">
@@ -1971,7 +1977,7 @@
         <v>14</v>
       </c>
       <c r="D89" s="2">
-        <v>21.491228070175438</v>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.3">
@@ -1985,7 +1991,7 @@
         <v>14</v>
       </c>
       <c r="D90" s="2">
-        <v>60.85526315789474</v>
+        <v>31</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.3">
@@ -1999,7 +2005,7 @@
         <v>15</v>
       </c>
       <c r="D91" s="2">
-        <v>25.17162471395881</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.3">
@@ -2013,7 +2019,7 @@
         <v>15</v>
       </c>
       <c r="D92" s="2">
-        <v>140.11617672944905</v>
+        <v>71</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
@@ -2027,7 +2033,7 @@
         <v>15</v>
       </c>
       <c r="D93" s="2">
-        <v>135.89156838584756</v>
+        <v>68</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.3">
@@ -2041,7 +2047,7 @@
         <v>15</v>
       </c>
       <c r="D94" s="2">
-        <v>57.736314029220203</v>
+        <v>29</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.3">
@@ -2055,7 +2061,7 @@
         <v>15</v>
       </c>
       <c r="D95" s="2">
-        <v>50.695300123217741</v>
+        <v>26</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.3">
@@ -2069,7 +2075,7 @@
         <v>15</v>
       </c>
       <c r="D96" s="2">
-        <v>83.964090829079396</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.3">
@@ -2083,7 +2089,7 @@
         <v>15</v>
       </c>
       <c r="D97" s="2">
-        <v>31.156486534060903</v>
+        <v>16</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.3">
@@ -2097,7 +2103,7 @@
         <v>15</v>
       </c>
       <c r="D98" s="2">
-        <v>0.88012673825030807</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.3">
@@ -2111,7 +2117,7 @@
         <v>15</v>
       </c>
       <c r="D99" s="2">
-        <v>69.706037669424404</v>
+        <v>35</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.3">
@@ -2125,7 +2131,7 @@
         <v>15</v>
       </c>
       <c r="D100" s="2">
-        <v>115.29660271079035</v>
+        <v>58</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.3">
@@ -2139,7 +2145,7 @@
         <v>15</v>
       </c>
       <c r="D101" s="2">
-        <v>19.010737546206652</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.3">
@@ -2153,7 +2159,7 @@
         <v>15</v>
       </c>
       <c r="D102" s="2">
-        <v>98.222143988734388</v>
+        <v>50</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.3">
@@ -2167,7 +2173,7 @@
         <v>15</v>
       </c>
       <c r="D103" s="2">
-        <v>102.09470163703574</v>
+        <v>52</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.3">
@@ -2181,7 +2187,7 @@
         <v>15</v>
       </c>
       <c r="D104" s="2">
-        <v>22.531244499207887</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.3">
@@ -2195,7 +2201,7 @@
         <v>15</v>
       </c>
       <c r="D105" s="2">
-        <v>47.526843865516639</v>
+        <v>24</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.3">
@@ -2209,7 +2215,7 @@
         <v>16</v>
       </c>
       <c r="D106" s="2">
-        <v>99.773242630385496</v>
+        <v>50</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.3">
@@ -2223,7 +2229,7 @@
         <v>16</v>
       </c>
       <c r="D107" s="2">
-        <v>37.95202291442893</v>
+        <v>19</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.3">
@@ -2237,7 +2243,7 @@
         <v>16</v>
       </c>
       <c r="D108" s="2">
-        <v>14.202172096908939</v>
+        <v>8</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.3">
@@ -2251,7 +2257,7 @@
         <v>16</v>
       </c>
       <c r="D109" s="2">
-        <v>4.2964554242749733</v>
+        <v>3</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.3">
@@ -2265,7 +2271,7 @@
         <v>16</v>
       </c>
       <c r="D110" s="2">
-        <v>65.998329156223889</v>
+        <v>33</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.3">
@@ -2279,7 +2285,7 @@
         <v>16</v>
       </c>
       <c r="D111" s="2">
-        <v>100.84735648645423</v>
+        <v>51</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.3">
@@ -2293,7 +2299,7 @@
         <v>16</v>
       </c>
       <c r="D112" s="2">
-        <v>113.49803079126387</v>
+        <v>57</v>
       </c>
     </row>
     <row r="113" spans="1:4" x14ac:dyDescent="0.3">
@@ -2307,7 +2313,7 @@
         <v>16</v>
       </c>
       <c r="D113" s="2">
-        <v>33.178183554123407</v>
+        <v>17</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.3">
@@ -2321,7 +2327,7 @@
         <v>16</v>
       </c>
       <c r="D114" s="2">
-        <v>111.82718701515694</v>
+        <v>56</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.3">
@@ -2335,7 +2341,7 @@
         <v>16</v>
       </c>
       <c r="D115" s="2">
-        <v>10.621792576679795</v>
+        <v>6</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.3">
@@ -2349,7 +2355,7 @@
         <v>16</v>
       </c>
       <c r="D116" s="2">
-        <v>44.754744002864307</v>
+        <v>23</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.3">
@@ -2363,7 +2369,7 @@
         <v>16</v>
       </c>
       <c r="D117" s="2">
-        <v>54.541114691490627</v>
+        <v>28</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.3">
@@ -2377,7 +2383,7 @@
         <v>16</v>
       </c>
       <c r="D118" s="2">
-        <v>113.97541472729444</v>
+        <v>57</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.3">
@@ -2391,7 +2397,7 @@
         <v>16</v>
       </c>
       <c r="D119" s="2">
-        <v>77.694235588972433</v>
+        <v>39</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.3">
@@ -2405,10 +2411,11 @@
         <v>16</v>
       </c>
       <c r="D120" s="2">
-        <v>116.83971834347774</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>